--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N2">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O2">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P2">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q2">
-        <v>12.9236941867965</v>
+        <v>22.332413927181</v>
       </c>
       <c r="R2">
-        <v>51.69477674718601</v>
+        <v>89.32965570872399</v>
       </c>
       <c r="S2">
-        <v>0.0001440821030591349</v>
+        <v>0.0001553429674308461</v>
       </c>
       <c r="T2">
-        <v>6.632327596863937E-05</v>
+        <v>7.062094984093232E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P3">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q3">
-        <v>1.1579454233615</v>
+        <v>0.7687540551303332</v>
       </c>
       <c r="R3">
-        <v>6.947672540169</v>
+        <v>4.612524330782</v>
       </c>
       <c r="S3">
-        <v>1.290956048743993E-05</v>
+        <v>5.347408324860678E-06</v>
       </c>
       <c r="T3">
-        <v>8.913712994155633E-06</v>
+        <v>3.646502909026923E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N4">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O4">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P4">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q4">
-        <v>2011.946446705329</v>
+        <v>1575.588998056757</v>
       </c>
       <c r="R4">
-        <v>12071.67868023197</v>
+        <v>9453.533988340543</v>
       </c>
       <c r="S4">
-        <v>0.0224305427762148</v>
+        <v>0.01095970508193181</v>
       </c>
       <c r="T4">
-        <v>0.01548770159951117</v>
+        <v>0.007473638449777955</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N5">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O5">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P5">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q5">
-        <v>56.45642826792526</v>
+        <v>72.5778099137445</v>
       </c>
       <c r="R5">
-        <v>225.825713071701</v>
+        <v>290.311239654978</v>
       </c>
       <c r="S5">
-        <v>0.0006294145310526101</v>
+        <v>0.0005048470084064986</v>
       </c>
       <c r="T5">
-        <v>0.0002897294858650202</v>
+        <v>0.000229510069542682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N6">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O6">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P6">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q6">
-        <v>25.00224667351601</v>
+        <v>1536.150839589615</v>
       </c>
       <c r="R6">
-        <v>150.013480041096</v>
+        <v>9216.905037537686</v>
       </c>
       <c r="S6">
-        <v>0.0002787419935705238</v>
+        <v>0.01068537555417586</v>
       </c>
       <c r="T6">
-        <v>0.0001924640372167422</v>
+        <v>0.007286567749314828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N7">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O7">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P7">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q7">
-        <v>2886.712480229882</v>
+        <v>604.4088993268219</v>
       </c>
       <c r="R7">
-        <v>17320.27488137929</v>
+        <v>3626.453395960931</v>
       </c>
       <c r="S7">
-        <v>0.03218302747394791</v>
+        <v>0.004204233016152579</v>
       </c>
       <c r="T7">
-        <v>0.02222153654765407</v>
+        <v>0.0028669491821586</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N8">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O8">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P8">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q8">
-        <v>111.1663874847867</v>
+        <v>289.3497822143599</v>
       </c>
       <c r="R8">
-        <v>666.9983249087201</v>
+        <v>1736.09869328616</v>
       </c>
       <c r="S8">
-        <v>0.001239358241288209</v>
+        <v>0.002012700191802398</v>
       </c>
       <c r="T8">
-        <v>0.0008557443663967325</v>
+        <v>0.001372499846380762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1001,10 +1001,10 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P9">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q9">
         <v>9.960357136208888</v>
@@ -1013,10 +1013,10 @@
         <v>89.64321422587999</v>
       </c>
       <c r="S9">
-        <v>0.0001110448129352379</v>
+        <v>6.928366271800532E-05</v>
       </c>
       <c r="T9">
-        <v>0.0001150102971697723</v>
+        <v>7.086883840757446E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N10">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O10">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P10">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q10">
-        <v>17306.26050572966</v>
+        <v>20414.10905841166</v>
       </c>
       <c r="R10">
-        <v>155756.3445515669</v>
+        <v>183726.9815257049</v>
       </c>
       <c r="S10">
-        <v>0.1929419230843674</v>
+        <v>0.1419993507612224</v>
       </c>
       <c r="T10">
-        <v>0.1998320076722718</v>
+        <v>0.1452482251701499</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N11">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O11">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P11">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q11">
-        <v>485.6240862810867</v>
+        <v>940.3539429554201</v>
       </c>
       <c r="R11">
-        <v>2913.74451768652</v>
+        <v>5642.12365773252</v>
       </c>
       <c r="S11">
-        <v>0.00541406649184212</v>
+        <v>0.006541047125953516</v>
       </c>
       <c r="T11">
-        <v>0.003738270941641171</v>
+        <v>0.004460468683863435</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N12">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O12">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P12">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q12">
-        <v>215.0630772846578</v>
+        <v>19903.12880340599</v>
       </c>
       <c r="R12">
-        <v>1935.56769556192</v>
+        <v>179128.1592306539</v>
       </c>
       <c r="S12">
-        <v>0.002397668965054928</v>
+        <v>0.1384450019402676</v>
       </c>
       <c r="T12">
-        <v>0.002483291320833967</v>
+        <v>0.1416125546187583</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N13">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O13">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P13">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q13">
-        <v>24830.77930320092</v>
+        <v>7831.020146719652</v>
       </c>
       <c r="R13">
-        <v>223477.0137288083</v>
+        <v>70479.18132047687</v>
       </c>
       <c r="S13">
-        <v>0.2768303590979085</v>
+        <v>0.05447211893746802</v>
       </c>
       <c r="T13">
-        <v>0.2867161556121815</v>
+        <v>0.05571841388365816</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N14">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O14">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P14">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q14">
-        <v>77.35782590564334</v>
+        <v>317.1794275456199</v>
       </c>
       <c r="R14">
-        <v>464.1469554338601</v>
+        <v>1903.07656527372</v>
       </c>
       <c r="S14">
-        <v>0.0008624374798310155</v>
+        <v>0.002206281579931882</v>
       </c>
       <c r="T14">
-        <v>0.0005954904644581789</v>
+        <v>0.001504506802286084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1373,22 +1373,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P15">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q15">
-        <v>6.931155997187778</v>
+        <v>10.91834370994</v>
       </c>
       <c r="R15">
-        <v>62.38040397469</v>
+        <v>98.26509338945999</v>
       </c>
       <c r="S15">
-        <v>7.727322530782469E-05</v>
+        <v>7.594736139417814E-05</v>
       </c>
       <c r="T15">
-        <v>8.003270365363914E-05</v>
+        <v>7.76849991899595E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N16">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O16">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P16">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q16">
-        <v>12042.98095468075</v>
+        <v>22377.53688787648</v>
       </c>
       <c r="R16">
-        <v>108386.8285921267</v>
+        <v>201397.8319908883</v>
       </c>
       <c r="S16">
-        <v>0.1342633149602267</v>
+        <v>0.1556568401110031</v>
       </c>
       <c r="T16">
-        <v>0.1390579473674299</v>
+        <v>0.1592181910728222</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N17">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O17">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P17">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q17">
-        <v>337.9332941556684</v>
+        <v>1030.79713084389</v>
       </c>
       <c r="R17">
-        <v>2027.59976493401</v>
+        <v>6184.78278506334</v>
       </c>
       <c r="S17">
-        <v>0.003767509429725926</v>
+        <v>0.007170164660507201</v>
       </c>
       <c r="T17">
-        <v>0.002601366467280215</v>
+        <v>0.004889476304097791</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N18">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O18">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P18">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q18">
-        <v>149.6568564269956</v>
+        <v>21817.41058147496</v>
       </c>
       <c r="R18">
-        <v>1346.91170784296</v>
+        <v>196356.6952332746</v>
       </c>
       <c r="S18">
-        <v>0.001668476079637528</v>
+        <v>0.151760634225862</v>
       </c>
       <c r="T18">
-        <v>0.001728058471778249</v>
+        <v>0.1552328419379106</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N19">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O19">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P19">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q19">
-        <v>17279.09978815621</v>
+        <v>8584.207211860439</v>
       </c>
       <c r="R19">
-        <v>155511.8980934059</v>
+        <v>77257.86490674395</v>
       </c>
       <c r="S19">
-        <v>0.1926391169940952</v>
+        <v>0.05971124418881826</v>
       </c>
       <c r="T19">
-        <v>0.1995183881748233</v>
+        <v>0.06107740771090703</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N20">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O20">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P20">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q20">
-        <v>7.957698118156999</v>
+        <v>13.512136018722</v>
       </c>
       <c r="R20">
-        <v>31.830792472628</v>
+        <v>54.048544074888</v>
       </c>
       <c r="S20">
-        <v>8.871781270909105E-05</v>
+        <v>9.398962925914435E-05</v>
       </c>
       <c r="T20">
-        <v>4.08382155084462E-05</v>
+        <v>4.272891784710325E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1745,22 +1745,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P21">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q21">
-        <v>0.7129989291936666</v>
+        <v>0.4651315075806667</v>
       </c>
       <c r="R21">
-        <v>4.277993575161999</v>
+        <v>2.790789045484</v>
       </c>
       <c r="S21">
-        <v>7.948995365588984E-06</v>
+        <v>3.235427610681248E-06</v>
       </c>
       <c r="T21">
-        <v>5.488572856501992E-06</v>
+        <v>2.20630172179765E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N22">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O22">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P22">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q22">
-        <v>1238.845659868426</v>
+        <v>953.3037011029547</v>
       </c>
       <c r="R22">
-        <v>7433.073959210557</v>
+        <v>5719.822206617729</v>
       </c>
       <c r="S22">
-        <v>0.01381149116186025</v>
+        <v>0.006631124887574323</v>
       </c>
       <c r="T22">
-        <v>0.009536472473862927</v>
+        <v>0.004521894481153278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N23">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O23">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P23">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q23">
-        <v>34.7627548665245</v>
+        <v>43.91290805790901</v>
       </c>
       <c r="R23">
-        <v>139.051019466098</v>
+        <v>175.651632231636</v>
       </c>
       <c r="S23">
-        <v>0.0003875587550203066</v>
+        <v>0.0003054556246573466</v>
       </c>
       <c r="T23">
-        <v>0.0001783994383585896</v>
+        <v>0.0001388641320834824</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N24">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O24">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P24">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q24">
-        <v>15.39500458830133</v>
+        <v>929.4418040741094</v>
       </c>
       <c r="R24">
-        <v>92.370027529808</v>
+        <v>5576.650824444656</v>
       </c>
       <c r="S24">
-        <v>0.0001716339465811297</v>
+        <v>0.006465142924985024</v>
       </c>
       <c r="T24">
-        <v>0.0001185087394235387</v>
+        <v>0.004408708116346613</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N25">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O25">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P25">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q25">
-        <v>1777.478338589487</v>
+        <v>365.695140939964</v>
       </c>
       <c r="R25">
-        <v>10664.87003153692</v>
+        <v>2194.170845639784</v>
       </c>
       <c r="S25">
-        <v>0.01981653337384584</v>
+        <v>0.002543754049781145</v>
       </c>
       <c r="T25">
-        <v>0.01368279665333497</v>
+        <v>0.001734635916851858</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N26">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O26">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P26">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q26">
-        <v>7.243773245251</v>
+        <v>35.925513052093</v>
       </c>
       <c r="R26">
-        <v>43.462639471506</v>
+        <v>215.5530783125579</v>
       </c>
       <c r="S26">
-        <v>8.075849429535042E-05</v>
+        <v>0.0002498957713297308</v>
       </c>
       <c r="T26">
-        <v>5.576162261211591E-05</v>
+        <v>0.0001704088413953561</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2117,22 +2117,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O27">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P27">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q27">
-        <v>0.6490322314943332</v>
+        <v>1.236672575185444</v>
       </c>
       <c r="R27">
-        <v>5.841290083448999</v>
+        <v>11.130053176669</v>
       </c>
       <c r="S27">
-        <v>7.23585126011457E-06</v>
+        <v>8.602222231598351E-06</v>
       </c>
       <c r="T27">
-        <v>7.494248328261777E-06</v>
+        <v>8.799036791089838E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N28">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O28">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P28">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q28">
-        <v>1127.702623636166</v>
+        <v>2534.604781148583</v>
       </c>
       <c r="R28">
-        <v>10149.32361272549</v>
+        <v>22811.44303033725</v>
       </c>
       <c r="S28">
-        <v>0.01257239325616374</v>
+        <v>0.01763056287832883</v>
       </c>
       <c r="T28">
-        <v>0.01302136179354837</v>
+        <v>0.0180339413743806</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N29">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O29">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P29">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q29">
-        <v>31.6440143738035</v>
+        <v>116.7538388752085</v>
       </c>
       <c r="R29">
-        <v>189.864086242821</v>
+        <v>700.523033251251</v>
       </c>
       <c r="S29">
-        <v>0.0003527889219840213</v>
+        <v>0.0008121328867070292</v>
       </c>
       <c r="T29">
-        <v>0.0002435914995822403</v>
+        <v>0.0005538093883957837</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N30">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O30">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P30">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q30">
-        <v>14.01384177829067</v>
+        <v>2471.161748013799</v>
       </c>
       <c r="R30">
-        <v>126.124576004616</v>
+        <v>22240.45573212419</v>
       </c>
       <c r="S30">
-        <v>0.0001562358073604794</v>
+        <v>0.01718925684387567</v>
       </c>
       <c r="T30">
-        <v>0.0001618150921067113</v>
+        <v>0.01758253847769424</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N31">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O31">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P31">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q31">
-        <v>1618.011872517441</v>
+        <v>972.2952419012324</v>
       </c>
       <c r="R31">
-        <v>14562.10685265697</v>
+        <v>8750.657177111092</v>
       </c>
       <c r="S31">
-        <v>0.01803869311648798</v>
+        <v>0.006763228936572704</v>
       </c>
       <c r="T31">
-        <v>0.0186828668628723</v>
+        <v>0.006917968245562202</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.317263</v>
+        <v>0.8257889999999999</v>
       </c>
       <c r="N32">
-        <v>0.634526</v>
+        <v>1.651578</v>
       </c>
       <c r="O32">
-        <v>0.002587741009497455</v>
+        <v>0.0058587154503511</v>
       </c>
       <c r="P32">
-        <v>0.001733186563985812</v>
+        <v>0.003938498360393406</v>
       </c>
       <c r="Q32">
-        <v>15.462540106322</v>
+        <v>163.96131156527</v>
       </c>
       <c r="R32">
-        <v>92.775240637932</v>
+        <v>983.7678693916198</v>
       </c>
       <c r="S32">
-        <v>0.0001723868783146543</v>
+        <v>0.001140505310597099</v>
       </c>
       <c r="T32">
-        <v>0.0001190286190416992</v>
+        <v>0.0007777330026431694</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2489,22 +2489,22 @@
         <v>0.08527899999999999</v>
       </c>
       <c r="O33">
-        <v>0.0002318580752130287</v>
+        <v>0.000201675970855546</v>
       </c>
       <c r="P33">
-        <v>0.0002329367385893502</v>
+        <v>0.0002033638142891158</v>
       </c>
       <c r="Q33">
-        <v>1.385422565008666</v>
+        <v>5.644079657545555</v>
       </c>
       <c r="R33">
-        <v>12.468803085078</v>
+        <v>50.79671691791</v>
       </c>
       <c r="S33">
-        <v>1.544562985682268E-05</v>
+        <v>3.925988857622226E-05</v>
       </c>
       <c r="T33">
-        <v>1.599720358701938E-05</v>
+        <v>4.015813526966746E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>49.39115366666667</v>
+        <v>58.26078933333333</v>
       </c>
       <c r="N34">
-        <v>148.173461</v>
+        <v>174.782368</v>
       </c>
       <c r="O34">
-        <v>0.4028566641859401</v>
+        <v>0.4133421329381362</v>
       </c>
       <c r="P34">
-        <v>0.4047308569616938</v>
+        <v>0.4168014285693301</v>
       </c>
       <c r="Q34">
-        <v>2407.191177251511</v>
+        <v>11567.74361479897</v>
       </c>
       <c r="R34">
-        <v>21664.7205952636</v>
+        <v>104109.6925331907</v>
       </c>
       <c r="S34">
-        <v>0.02683699894710715</v>
+        <v>0.08046454921807566</v>
       </c>
       <c r="T34">
-        <v>0.02779536605506956</v>
+        <v>0.08230553802104618</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.3859455</v>
+        <v>2.6837205</v>
       </c>
       <c r="N35">
-        <v>2.771891</v>
+        <v>5.367441</v>
       </c>
       <c r="O35">
-        <v>0.01130440047304115</v>
+        <v>0.01904016008662501</v>
       </c>
       <c r="P35">
-        <v>0.007571327633592944</v>
+        <v>0.01279967254226464</v>
       </c>
       <c r="Q35">
-        <v>67.54723330147701</v>
+        <v>532.8556484218151</v>
       </c>
       <c r="R35">
-        <v>405.283399808862</v>
+        <v>3197.13389053089</v>
       </c>
       <c r="S35">
-        <v>0.0007530623434161646</v>
+        <v>0.003706512780393421</v>
       </c>
       <c r="T35">
-        <v>0.0005199698008657085</v>
+        <v>0.002527543964281466</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.6137786666666667</v>
+        <v>56.80247866666667</v>
       </c>
       <c r="N36">
-        <v>1.841336</v>
+        <v>170.407436</v>
       </c>
       <c r="O36">
-        <v>0.005006257352694774</v>
+        <v>0.4029958735011471</v>
       </c>
       <c r="P36">
-        <v>0.005029547749002214</v>
+        <v>0.4063685804030112</v>
       </c>
       <c r="Q36">
-        <v>29.91391132826134</v>
+        <v>11278.1944326516</v>
       </c>
       <c r="R36">
-        <v>269.225201954352</v>
+        <v>101503.7498938644</v>
       </c>
       <c r="S36">
-        <v>0.0003335005604901845</v>
+        <v>0.07845046201198098</v>
       </c>
       <c r="T36">
-        <v>0.0003454100876430062</v>
+        <v>0.08024536950298666</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>70.86573300000001</v>
+        <v>22.349318</v>
       </c>
       <c r="N37">
-        <v>212.597199</v>
+        <v>67.04795399999999</v>
       </c>
       <c r="O37">
-        <v>0.5780130789036134</v>
+        <v>0.1585614420528851</v>
       </c>
       <c r="P37">
-        <v>0.5807021443531359</v>
+        <v>0.1598884563107116</v>
       </c>
       <c r="Q37">
-        <v>3453.804063746502</v>
+        <v>4437.481598652073</v>
       </c>
       <c r="R37">
-        <v>31084.23657371852</v>
+        <v>39937.33438786865</v>
       </c>
       <c r="S37">
-        <v>0.03850534884732786</v>
+        <v>0.03086686292409239</v>
       </c>
       <c r="T37">
-        <v>0.0398804005022699</v>
+        <v>0.03157308137157379</v>
       </c>
     </row>
   </sheetData>
